--- a/results/cifar100_training/results_ewc_cifar100.xlsx
+++ b/results/cifar100_training/results_ewc_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.453516448416361</v>
+        <v>3.46467235869011</v>
       </c>
       <c r="D3">
-        <v>3.182685693105062</v>
+        <v>3.179702758789062</v>
       </c>
       <c r="E3">
-        <v>9.109999656677246</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.150389819335937</v>
+        <v>3.120206457519531</v>
       </c>
       <c r="J3">
-        <v>18.21999931335449</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.875970729967443</v>
+        <v>2.890549974103945</v>
       </c>
       <c r="D4">
-        <v>2.83761199315389</v>
+        <v>3.016303539276123</v>
       </c>
       <c r="E4">
-        <v>12.15999984741211</v>
+        <v>10.62</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>9.793556811523437</v>
+        <v>9.679937573242187</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.510584375722622</v>
+        <v>2.589683758474029</v>
       </c>
       <c r="D5">
-        <v>2.513426303863525</v>
+        <v>2.683440685272217</v>
       </c>
       <c r="E5">
-        <v>15.8799991607666</v>
+        <v>14.29</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2.820836950683594</v>
+        <v>3.030710327148438</v>
       </c>
       <c r="J5">
-        <v>24.31999969482422</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.235617019296662</v>
+        <v>2.314792472704322</v>
       </c>
       <c r="D6">
-        <v>2.353200276692708</v>
+        <v>2.445444822311401</v>
       </c>
       <c r="E6">
-        <v>17.23999977111816</v>
+        <v>16.73</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>10.92865541992187</v>
+        <v>11.21310610351562</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.01879040303269</v>
+        <v>2.081917163545052</v>
       </c>
       <c r="D7">
-        <v>2.521662791570028</v>
+        <v>2.295060873031616</v>
       </c>
       <c r="E7">
-        <v>14.92000007629395</v>
+        <v>18.75</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2.543194097900391</v>
+        <v>2.660434063720703</v>
       </c>
       <c r="J7">
-        <v>31.7599983215332</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.858567841653901</v>
+        <v>1.907833039233115</v>
       </c>
       <c r="D8">
-        <v>2.235066095987956</v>
+        <v>2.319609403610229</v>
       </c>
       <c r="E8">
-        <v>19.71999931335449</v>
+        <v>19.26</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>11.24306923828125</v>
+        <v>11.1717916015625</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.703794870919328</v>
+        <v>1.763023283629291</v>
       </c>
       <c r="D9">
-        <v>2.043069124221802</v>
+        <v>2.036241769790649</v>
       </c>
       <c r="E9">
-        <v>22.30999946594238</v>
+        <v>22.12</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>2.417318304443359</v>
+        <v>2.405923846435547</v>
       </c>
       <c r="J9">
-        <v>34.47999954223633</v>
+        <v>33.46</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.591760842780757</v>
+        <v>1.627773550759374</v>
       </c>
       <c r="D10">
-        <v>2.036316712697347</v>
+        <v>2.103379726409912</v>
       </c>
       <c r="E10">
-        <v>21.47999954223633</v>
+        <v>21.39</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>11.63403188476562</v>
+        <v>11.94819780273438</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.473577968473357</v>
+        <v>1.509281086710702</v>
       </c>
       <c r="D11">
-        <v>2.025822679201762</v>
+        <v>1.959551811218262</v>
       </c>
       <c r="E11">
-        <v>21.54999923706055</v>
+        <v>23.05</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>2.554453662109375</v>
+        <v>2.287249816894531</v>
       </c>
       <c r="J11">
-        <v>29.84000015258789</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.379363912877029</v>
+        <v>1.395478340376795</v>
       </c>
       <c r="D12">
-        <v>1.96223775545756</v>
+        <v>2.158027172088623</v>
       </c>
       <c r="E12">
-        <v>23.93999862670898</v>
+        <v>21.87</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>12.3742986328125</v>
+        <v>12.32983681640625</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.282706484077422</v>
+        <v>1.304813556966528</v>
       </c>
       <c r="D13">
-        <v>1.860412001609802</v>
+        <v>2.009416818618774</v>
       </c>
       <c r="E13">
-        <v>24.10999870300293</v>
+        <v>23.4</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>2.203722894287109</v>
+        <v>2.254777758789063</v>
       </c>
       <c r="J13">
-        <v>39.43999862670898</v>
+        <v>38.52</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.18894612740695</v>
+        <v>1.213203988244048</v>
       </c>
       <c r="D14">
-        <v>1.999414364496867</v>
+        <v>2.294023990631104</v>
       </c>
       <c r="E14">
-        <v>22.65999984741211</v>
+        <v>21.12</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>12.84700434570312</v>
+        <v>13.00703012695313</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.095335133676606</v>
+        <v>1.109117975804658</v>
       </c>
       <c r="D15">
-        <v>2.043226202329</v>
+        <v>2.13715934753418</v>
       </c>
       <c r="E15">
-        <v>23.47999954223633</v>
+        <v>22.53</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>2.01049599609375</v>
+        <v>1.993071936035156</v>
       </c>
       <c r="J15">
-        <v>44.61999893188477</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.021720379348693</v>
+        <v>1.023071901988139</v>
       </c>
       <c r="D16">
-        <v>2.16218090057373</v>
+        <v>1.987596035003662</v>
       </c>
       <c r="E16">
-        <v>22.1299991607666</v>
+        <v>24.2</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>13.34878720703125</v>
+        <v>13.50802163085937</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9447314908834008</v>
+        <v>1.222614686046027</v>
       </c>
       <c r="D17">
-        <v>2.186418890953064</v>
+        <v>1.681039571762085</v>
       </c>
       <c r="E17">
-        <v>21.76000022888184</v>
+        <v>26.5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>2.032975659179688</v>
+        <v>2.034582122802735</v>
       </c>
       <c r="J17">
-        <v>42.95999908447266</v>
+        <v>42.78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8652362290436659</v>
+        <v>1.134985782403862</v>
       </c>
       <c r="D18">
-        <v>2.031792640686035</v>
+        <v>1.681091904640198</v>
       </c>
       <c r="E18">
-        <v>24.39999961853027</v>
+        <v>26.76</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>13.41576943359375</v>
+        <v>13.46412260742187</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9969614293517136</v>
+        <v>1.075914827068295</v>
       </c>
       <c r="D19">
-        <v>1.601275483767192</v>
+        <v>1.723157525062561</v>
       </c>
       <c r="E19">
-        <v>27.22999954223633</v>
+        <v>26.37</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>2.042972015380859</v>
+        <v>1.906890948486328</v>
       </c>
       <c r="J19">
-        <v>43.09999847412109</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9051941444234151</v>
+        <v>1.033033664247631</v>
       </c>
       <c r="D20">
-        <v>1.58417530854543</v>
+        <v>1.721075534820557</v>
       </c>
       <c r="E20">
-        <v>27.75</v>
+        <v>26.37</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>13.21004360351563</v>
+        <v>13.87346015625</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8553450223876209</v>
+        <v>0.9865234589154741</v>
       </c>
       <c r="D21">
-        <v>1.609994411468506</v>
+        <v>1.744514942169189</v>
       </c>
       <c r="E21">
-        <v>27.67000007629395</v>
+        <v>26.02</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>1.923643157958984</v>
+        <v>2.061812878417969</v>
       </c>
       <c r="J21">
-        <v>47.87999725341797</v>
+        <v>43.74</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8166395483947382</v>
+        <v>0.9421846798035951</v>
       </c>
       <c r="D22">
-        <v>1.653283754984538</v>
+        <v>1.734870195388794</v>
       </c>
       <c r="E22">
-        <v>27.34000015258789</v>
+        <v>26.08</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>14.17395424804688</v>
+        <v>14.49883046875</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7755007419159742</v>
+        <v>1.11578362230706</v>
       </c>
       <c r="D23">
-        <v>1.642807364463806</v>
+        <v>1.674538612365723</v>
       </c>
       <c r="E23">
-        <v>27.55999946594238</v>
+        <v>26.69</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>1.852065374755859</v>
+        <v>1.952633056640625</v>
       </c>
       <c r="J23">
-        <v>48.21999740600586</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7360071927551332</v>
+        <v>1.093333094520906</v>
       </c>
       <c r="D24">
-        <v>1.702042579650879</v>
+        <v>1.657339572906494</v>
       </c>
       <c r="E24">
-        <v>27.17000007629395</v>
+        <v>26.84</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>13.81614677734375</v>
+        <v>14.35826298828125</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6951094584736398</v>
+        <v>1.078439018895141</v>
       </c>
       <c r="D25">
-        <v>1.738661924997966</v>
+        <v>1.66845715045929</v>
       </c>
       <c r="E25">
-        <v>27.07999992370605</v>
+        <v>26.83</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>1.985760357666016</v>
+        <v>2.219913220214844</v>
       </c>
       <c r="J25">
-        <v>45.31999969482422</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8300047124304423</v>
+        <v>1.063431512992994</v>
       </c>
       <c r="D26">
-        <v>1.540123581886292</v>
+        <v>1.684521555900574</v>
       </c>
       <c r="E26">
-        <v>28.02999877929688</v>
+        <v>26.76</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>14.1839009765625</v>
+        <v>14.78649399414062</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8145044029243593</v>
+        <v>1.052268703426935</v>
       </c>
       <c r="D27">
-        <v>1.612804969151815</v>
+        <v>1.664287447929382</v>
       </c>
       <c r="E27">
-        <v>28.10999870300293</v>
+        <v>26.78</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>1.981765344238281</v>
+        <v>2.078712872314453</v>
       </c>
       <c r="J27">
-        <v>46.95999908447266</v>
+        <v>45.06</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8032272855440775</v>
+        <v>1.039183434131926</v>
       </c>
       <c r="D28">
-        <v>1.593753735224406</v>
+        <v>1.662939548492432</v>
       </c>
       <c r="E28">
-        <v>28.06999969482422</v>
+        <v>26.68</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>14.56390678710937</v>
+        <v>14.451772265625</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.7889559763233837</v>
+        <v>1.027337277885032</v>
       </c>
       <c r="D29">
-        <v>1.569937785466512</v>
+        <v>1.683683514595032</v>
       </c>
       <c r="E29">
-        <v>28.07999992370605</v>
+        <v>26.63</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>2.214573193359375</v>
+        <v>1.913903204345703</v>
       </c>
       <c r="J29">
-        <v>44.2599983215332</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.7802699537781196</v>
+        <v>1.072718322804544</v>
       </c>
       <c r="D30">
-        <v>1.574330528577169</v>
+        <v>1.667635083198547</v>
       </c>
       <c r="E30">
-        <v>27.8799991607666</v>
+        <v>26.75</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>14.46834858398437</v>
+        <v>14.99571865234375</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.7706910265170461</v>
+        <v>1.0726099457361</v>
       </c>
       <c r="D31">
-        <v>1.575316349665324</v>
+        <v>1.668775320053101</v>
       </c>
       <c r="E31">
-        <v>27.95999908447266</v>
+        <v>26.73</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>2.210647497558594</v>
+        <v>1.633993939208984</v>
       </c>
       <c r="J31">
-        <v>43.52000045776367</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.8116002683717061</v>
+        <v>1.067618681793719</v>
       </c>
       <c r="D32">
-        <v>1.602091789245605</v>
+        <v>1.678119301795959</v>
       </c>
       <c r="E32">
-        <v>28.1299991607666</v>
+        <v>26.82</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>14.89057998046875</v>
+        <v>13.54488833007813</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.8045008972408326</v>
+        <v>1.064195729462446</v>
       </c>
       <c r="D33">
-        <v>1.556332945823669</v>
+        <v>1.679765820503235</v>
       </c>
       <c r="E33">
-        <v>28.07999992370605</v>
+        <v>26.91</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>2.014602008056641</v>
+        <v>1.633821612548828</v>
       </c>
       <c r="J33">
-        <v>48.79999923706055</v>
+        <v>53.52</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.8021887671656724</v>
+        <v>1.061797552404151</v>
       </c>
       <c r="D34">
-        <v>1.536952296892802</v>
+        <v>1.662965536117554</v>
       </c>
       <c r="E34">
-        <v>28.25</v>
+        <v>26.92</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>15.4690091796875</v>
+        <v>13.46979965820313</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.7994244491181722</v>
+        <v>1.075773724412496</v>
       </c>
       <c r="D35">
-        <v>1.58437176545461</v>
+        <v>1.67110276222229</v>
       </c>
       <c r="E35">
-        <v>28.17999839782715</v>
+        <v>26.68</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>1.594890264892578</v>
+        <v>1.659891015625</v>
       </c>
       <c r="J35">
-        <v>54.45999908447266</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.7991048049151412</v>
+        <v>1.071860077634322</v>
       </c>
       <c r="D36">
-        <v>1.542316476504008</v>
+        <v>1.674872279167175</v>
       </c>
       <c r="E36">
-        <v>28.17999839782715</v>
+        <v>26.81</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>13.91832485351562</v>
+        <v>13.45170053710937</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.7953996154350963</v>
+        <v>1.073837693813628</v>
       </c>
       <c r="D37">
-        <v>1.588204503059387</v>
+        <v>1.697558522224426</v>
       </c>
       <c r="E37">
-        <v>28.07999992370605</v>
+        <v>26.81</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>1.591782177734375</v>
+        <v>1.65607177734375</v>
       </c>
       <c r="J37">
-        <v>55.5</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.7940338365430755</v>
+        <v>1.072617808801938</v>
       </c>
       <c r="D38">
-        <v>1.577880422274272</v>
+        <v>1.676520466804504</v>
       </c>
       <c r="E38">
-        <v>28.02999877929688</v>
+        <v>26.89</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>14.47932045898438</v>
+        <v>13.83998432617187</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.790938334251807</v>
+        <v>1.071097198840791</v>
       </c>
       <c r="D39">
-        <v>1.624334732691447</v>
+        <v>1.670845627784729</v>
       </c>
       <c r="E39">
-        <v>28.19999885559082</v>
+        <v>26.82</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1523,28 +1523,13 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>1.588599047851563</v>
+        <v>1.68207939453125</v>
       </c>
       <c r="J39">
-        <v>55.34000015258789</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>0.80052366198563</v>
-      </c>
-      <c r="D40">
-        <v>1.562488118807475</v>
-      </c>
-      <c r="E40">
-        <v>28.10999870300293</v>
-      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -1552,28 +1537,13 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>14.18814848632812</v>
+        <v>13.81255283203125</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.7995732804624046</v>
-      </c>
-      <c r="D41">
-        <v>1.591631889343262</v>
-      </c>
-      <c r="E41">
-        <v>28.01999855041504</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -1581,28 +1551,13 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>1.626940972900391</v>
+        <v>1.677782434082031</v>
       </c>
       <c r="J41">
-        <v>54.68000030517578</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>0.7988239812657116</v>
-      </c>
-      <c r="D42">
-        <v>1.590457836786906</v>
-      </c>
-      <c r="E42">
-        <v>28.09000015258789</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -1610,28 +1565,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>14.4513208984375</v>
+        <v>13.85806552734375</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>0.7978011830066277</v>
-      </c>
-      <c r="D43">
-        <v>1.552660663922628</v>
-      </c>
-      <c r="E43">
-        <v>28.09000015258789</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -1639,28 +1579,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>1.632478668212891</v>
+        <v>1.612977917480469</v>
       </c>
       <c r="J43">
-        <v>55.11999893188477</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>0.7990669278594537</v>
-      </c>
-      <c r="D44">
-        <v>1.557816624641418</v>
-      </c>
-      <c r="E44">
-        <v>28.11999893188477</v>
-      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -1668,7 +1593,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>14.51507563476562</v>
+        <v>13.52860053710937</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,10 +1607,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>1.670403485107422</v>
+        <v>1.609746868896484</v>
       </c>
       <c r="J45">
-        <v>54.34000015258789</v>
+        <v>53.68</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1696,7 +1621,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>14.62998295898437</v>
+        <v>13.53289243164063</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1710,10 +1635,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>1.699308874511719</v>
+        <v>1.612223278808594</v>
       </c>
       <c r="J47">
-        <v>54.15999984741211</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1724,7 +1649,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>14.91151293945313</v>
+        <v>13.57639770507813</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1738,10 +1663,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>1.564376599121094</v>
+        <v>1.615033483886719</v>
       </c>
       <c r="J49">
-        <v>56.05999755859375</v>
+        <v>53.52</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1752,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>14.20712861328125</v>
+        <v>13.53263359375</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1766,10 +1691,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>1.567202954101562</v>
+        <v>1.613046173095703</v>
       </c>
       <c r="J51">
-        <v>56.21999740600586</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1780,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>14.22229858398438</v>
+        <v>13.59736147460938</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1794,10 +1719,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>1.567934063720703</v>
+        <v>1.618150817871094</v>
       </c>
       <c r="J53">
-        <v>56.13999938964844</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1808,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>14.20025</v>
+        <v>13.5699818359375</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1822,10 +1747,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>1.570427917480469</v>
+        <v>1.617199920654297</v>
       </c>
       <c r="J55">
-        <v>56.15999984741211</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1836,7 +1761,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>14.22106684570313</v>
+        <v>13.66516762695312</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1850,10 +1775,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1.574702856445312</v>
+        <v>1.609436364746094</v>
       </c>
       <c r="J57">
-        <v>55.7599983215332</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1864,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>14.28434643554687</v>
+        <v>13.5303009765625</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1878,10 +1803,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>1.580743756103516</v>
+        <v>1.610176318359375</v>
       </c>
       <c r="J59">
-        <v>55.91999816894531</v>
+        <v>53.46</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1892,7 +1817,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>14.32280302734375</v>
+        <v>13.54764716796875</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1906,10 +1831,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1.562731127929688</v>
+        <v>1.610406976318359</v>
       </c>
       <c r="J61">
-        <v>56.2599983215332</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1920,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>14.23353237304688</v>
+        <v>13.5501869140625</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1934,10 +1859,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>1.562021356201172</v>
+        <v>1.610493572998047</v>
       </c>
       <c r="J63">
-        <v>56.15999984741211</v>
+        <v>53.82</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1948,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>14.24735615234375</v>
+        <v>13.53605961914062</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1962,10 +1887,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>1.563141510009766</v>
+        <v>1.609914440917969</v>
       </c>
       <c r="J65">
-        <v>56.5</v>
+        <v>53.84</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1976,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>14.22217915039062</v>
+        <v>13.55226865234375</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1990,10 +1915,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>1.566224047851563</v>
+        <v>1.610251513671875</v>
       </c>
       <c r="J67">
-        <v>56.3599967956543</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -2004,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>14.28090903320312</v>
+        <v>13.55382421875</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2018,10 +1943,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>1.567076977539062</v>
+        <v>1.609833935546875</v>
       </c>
       <c r="J69">
-        <v>56.3599967956543</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -2032,7 +1957,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>14.24700551757813</v>
+        <v>13.56364794921875</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2046,10 +1971,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>1.565001446533203</v>
+        <v>1.608970684814453</v>
       </c>
       <c r="J71">
-        <v>56.15999984741211</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2060,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>14.21627377929688</v>
+        <v>13.55643149414063</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2074,10 +1999,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>1.566916424560547</v>
+        <v>1.608768731689453</v>
       </c>
       <c r="J73">
-        <v>56.05999755859375</v>
+        <v>53.78</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2088,7 +2013,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>14.24845473632812</v>
+        <v>13.53255361328125</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2102,10 +2027,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>1.566189367675781</v>
+        <v>1.610677960205078</v>
       </c>
       <c r="J75">
-        <v>56.39999771118164</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2116,149 +2041,9 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>14.25198696289062</v>
+        <v>13.53812172851563</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10">
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>38</v>
-      </c>
-      <c r="I77">
-        <v>1.563711694335937</v>
-      </c>
-      <c r="J77">
-        <v>56.21999740600586</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10">
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>38</v>
-      </c>
-      <c r="I78">
-        <v>14.20676416015625</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>39</v>
-      </c>
-      <c r="I79">
-        <v>1.564421630859375</v>
-      </c>
-      <c r="J79">
-        <v>56.03999710083008</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>39</v>
-      </c>
-      <c r="I80">
-        <v>14.2094044921875</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>40</v>
-      </c>
-      <c r="I81">
-        <v>1.565197436523438</v>
-      </c>
-      <c r="J81">
-        <v>56.18000030517578</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10">
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>40</v>
-      </c>
-      <c r="I82">
-        <v>14.24551118164062</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>1.566107159423828</v>
-      </c>
-      <c r="J83">
-        <v>56.18000030517578</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>14.26021904296875</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>1.565461511230469</v>
-      </c>
-      <c r="J85">
-        <v>56.23999786376953</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>14.21739326171875</v>
-      </c>
-      <c r="J86">
         <v>0</v>
       </c>
     </row>
@@ -2273,7 +2058,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2332,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9.348142112173685</v>
+        <v>8.399073545911671</v>
       </c>
       <c r="D3">
-        <v>4.100797176361084</v>
+        <v>5.47079610824585</v>
       </c>
       <c r="E3">
-        <v>22.27999877929688</v>
+        <v>10.11</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2347,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.376579833984375</v>
+        <v>3.835896960449219</v>
       </c>
       <c r="J3">
-        <v>41.95999908447266</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2361,13 +2146,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.292295560604189</v>
+        <v>6.738756124952198</v>
       </c>
       <c r="D4">
-        <v>2.713467439015707</v>
+        <v>4.332987785339355</v>
       </c>
       <c r="E4">
-        <v>24.81999969482422</v>
+        <v>10.44</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2376,10 +2161,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>4.148266845703125</v>
+        <v>4.570337731933594</v>
       </c>
       <c r="J4">
-        <v>2.599999904632568</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2390,13 +2175,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.591327070220699</v>
+        <v>5.688251524899913</v>
       </c>
       <c r="D5">
-        <v>2.398276011149088</v>
+        <v>3.575971841812134</v>
       </c>
       <c r="E5">
-        <v>24.56999969482422</v>
+        <v>12.96</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2405,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>5.055574926757813</v>
+        <v>4.644544763183593</v>
       </c>
       <c r="J5">
-        <v>24.21999931335449</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2419,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.417035798716351</v>
+        <v>5.013980228289038</v>
       </c>
       <c r="D6">
-        <v>2.32473341623942</v>
+        <v>3.464873313903809</v>
       </c>
       <c r="E6">
-        <v>25.1299991607666</v>
+        <v>12.98</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2434,10 +2219,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2.739930773925781</v>
+        <v>3.626357702636719</v>
       </c>
       <c r="J6">
-        <v>25.42000007629395</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2448,13 +2233,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.360800293402943</v>
+        <v>4.976990602712716</v>
       </c>
       <c r="D7">
-        <v>2.238733530044556</v>
+        <v>3.66835880279541</v>
       </c>
       <c r="E7">
-        <v>24.98999786376953</v>
+        <v>10.64</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2463,10 +2248,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>5.802993432617187</v>
+        <v>5.490897094726562</v>
       </c>
       <c r="J7">
-        <v>16.71999931335449</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2477,13 +2262,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.324801390733176</v>
+        <v>4.988851914363625</v>
       </c>
       <c r="D8">
-        <v>2.231793085734049</v>
+        <v>3.490848302841187</v>
       </c>
       <c r="E8">
-        <v>24.61999893188477</v>
+        <v>11.68</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2492,10 +2277,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2.402607843017578</v>
+        <v>3.124146020507812</v>
       </c>
       <c r="J8">
-        <v>32.41999816894531</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2506,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.297830321924473</v>
+        <v>5.042553429055003</v>
       </c>
       <c r="D9">
-        <v>2.223900079727173</v>
+        <v>3.59270715713501</v>
       </c>
       <c r="E9">
-        <v>24.80999946594238</v>
+        <v>9.43</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2521,10 +2306,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>6.07207001953125</v>
+        <v>6.246766259765625</v>
       </c>
       <c r="J9">
-        <v>14.96000003814697</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2535,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.275837514458633</v>
+        <v>4.973473751439458</v>
       </c>
       <c r="D10">
-        <v>2.149417877197266</v>
+        <v>3.521783828735352</v>
       </c>
       <c r="E10">
-        <v>24.11000061035156</v>
+        <v>10.24</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2550,10 +2335,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>2.294568505859375</v>
+        <v>2.99226953125</v>
       </c>
       <c r="J10">
-        <v>35.29999923706055</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2564,13 +2349,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.260958975892726</v>
+        <v>4.836156798674997</v>
       </c>
       <c r="D11">
-        <v>2.15800937016805</v>
+        <v>3.516921758651733</v>
       </c>
       <c r="E11">
-        <v>24.56999969482422</v>
+        <v>10.6</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2579,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>6.245231909179688</v>
+        <v>6.985349438476563</v>
       </c>
       <c r="J11">
-        <v>13.57999992370605</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2593,13 +2378,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.244655595562322</v>
+        <v>5.618049819912531</v>
       </c>
       <c r="D12">
-        <v>2.139184157053629</v>
+        <v>3.397061347961426</v>
       </c>
       <c r="E12">
-        <v>24.85999870300293</v>
+        <v>10.81</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2608,10 +2393,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>2.234844305419922</v>
+        <v>3.086203381347656</v>
       </c>
       <c r="J12">
-        <v>36.39999771118164</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2622,13 +2407,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.240292312653084</v>
+        <v>5.250999146858148</v>
       </c>
       <c r="D13">
-        <v>2.140456994374593</v>
+        <v>3.621759653091431</v>
       </c>
       <c r="E13">
-        <v>24.61999893188477</v>
+        <v>9.07</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2637,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>6.42634189453125</v>
+        <v>7.719935522460937</v>
       </c>
       <c r="J13">
-        <v>12.46000003814697</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2651,13 +2436,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.235781576575302</v>
+        <v>5.504015179861963</v>
       </c>
       <c r="D14">
-        <v>2.134326537450155</v>
+        <v>3.917735815048218</v>
       </c>
       <c r="E14">
-        <v>24.43000030517578</v>
+        <v>6.63</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2666,10 +2451,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>2.200103405761719</v>
+        <v>3.044217333984375</v>
       </c>
       <c r="J14">
-        <v>36.77999877929688</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2680,13 +2465,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.218753415394605</v>
+        <v>5.894007222842326</v>
       </c>
       <c r="D15">
-        <v>2.129904905954997</v>
+        <v>4.167788505554199</v>
       </c>
       <c r="E15">
-        <v>24.32999992370605</v>
+        <v>5.38</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2695,10 +2480,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>6.598214501953125</v>
+        <v>7.856801586914062</v>
       </c>
       <c r="J15">
-        <v>11.5</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2709,13 +2494,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.257941633705201</v>
+        <v>5.944886971363979</v>
       </c>
       <c r="D16">
-        <v>2.099490404129028</v>
+        <v>4.210291862487793</v>
       </c>
       <c r="E16">
-        <v>24.55999946594238</v>
+        <v>4.91</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2724,10 +2509,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>2.16977172241211</v>
+        <v>3.127237829589844</v>
       </c>
       <c r="J16">
-        <v>38.11999893188477</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2738,13 +2523,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.236629074181967</v>
+        <v>5.809946178335004</v>
       </c>
       <c r="D17">
-        <v>2.082303047180176</v>
+        <v>4.219141483306885</v>
       </c>
       <c r="E17">
-        <v>24.28999900817871</v>
+        <v>4.970000000000001</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2753,10 +2538,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>6.690076220703125</v>
+        <v>8.626058813476563</v>
       </c>
       <c r="J17">
-        <v>10.85999965667725</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2767,13 +2552,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.203516539519395</v>
+        <v>5.509095251032736</v>
       </c>
       <c r="D18">
-        <v>2.058526039123535</v>
+        <v>3.549861431121826</v>
       </c>
       <c r="E18">
-        <v>24.66999816894531</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2782,10 +2567,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>2.149244354248047</v>
+        <v>3.176673364257812</v>
       </c>
       <c r="J18">
-        <v>37.36000061035156</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2796,13 +2581,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.199841111656127</v>
+        <v>5.835520432058689</v>
       </c>
       <c r="D19">
-        <v>2.099073648452759</v>
+        <v>3.792176008224487</v>
       </c>
       <c r="E19">
-        <v>24.60999870300293</v>
+        <v>7.16</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2811,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>6.7883716796875</v>
+        <v>8.725264086914063</v>
       </c>
       <c r="J19">
-        <v>10.57999992370605</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2825,13 +2610,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.173243740709816</v>
+        <v>6.312436188216758</v>
       </c>
       <c r="D20">
-        <v>2.124279379844666</v>
+        <v>4.147599220275879</v>
       </c>
       <c r="E20">
-        <v>24.47999954223633</v>
+        <v>5.630000000000001</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2840,10 +2625,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>2.134000646972656</v>
+        <v>3.113555615234375</v>
       </c>
       <c r="J20">
-        <v>38.55999755859375</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2854,13 +2639,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.188137002107574</v>
+        <v>6.954029205626092</v>
       </c>
       <c r="D21">
-        <v>2.095442255338033</v>
+        <v>4.490087985992432</v>
       </c>
       <c r="E21">
-        <v>24.36999893188477</v>
+        <v>4.82</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2869,10 +2654,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>6.90178662109375</v>
+        <v>6.033857788085937</v>
       </c>
       <c r="J21">
-        <v>10.25999927520752</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2883,13 +2668,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.246826949158335</v>
+        <v>7.394477236587389</v>
       </c>
       <c r="D22">
-        <v>2.051936427752177</v>
+        <v>4.748386859893799</v>
       </c>
       <c r="E22">
-        <v>24.40999794006348</v>
+        <v>4.19</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2898,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.120601098632812</v>
+        <v>3.097421630859375</v>
       </c>
       <c r="J22">
-        <v>39.45999908447266</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2912,13 +2697,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.265353766883292</v>
+        <v>5.667480793674435</v>
       </c>
       <c r="D23">
-        <v>2.052398244539896</v>
+        <v>3.42241907119751</v>
       </c>
       <c r="E23">
-        <v>24.39999771118164</v>
+        <v>9.94</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2927,10 +2712,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>7.053505517578125</v>
+        <v>6.668288745117188</v>
       </c>
       <c r="J23">
-        <v>9.699999809265137</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2941,13 +2726,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.197937259829141</v>
+        <v>5.82912613438294</v>
       </c>
       <c r="D24">
-        <v>2.067149519920349</v>
+        <v>3.486669301986694</v>
       </c>
       <c r="E24">
-        <v>24.69999885559082</v>
+        <v>8.84</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2956,10 +2741,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>2.108038714599609</v>
+        <v>3.293373645019531</v>
       </c>
       <c r="J24">
-        <v>39.53999710083008</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2970,13 +2755,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.151918171867123</v>
+        <v>5.986691268144456</v>
       </c>
       <c r="D25">
-        <v>2.049293716748556</v>
+        <v>3.540815353393555</v>
       </c>
       <c r="E25">
-        <v>24.45999908447266</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2985,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>7.173970776367187</v>
+        <v>7.041042749023437</v>
       </c>
       <c r="J25">
-        <v>9.239999771118164</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2999,13 +2784,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>2.211868662175124</v>
+        <v>6.1797015012893</v>
       </c>
       <c r="D26">
-        <v>2.103628794352213</v>
+        <v>3.600858449935913</v>
       </c>
       <c r="E26">
-        <v>24.34999847412109</v>
+        <v>7.71</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3014,10 +2799,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>2.094317779541016</v>
+        <v>3.592302587890625</v>
       </c>
       <c r="J26">
-        <v>39.61999893188477</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3028,13 +2813,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.163374593587426</v>
+        <v>6.331735134124756</v>
       </c>
       <c r="D27">
-        <v>2.029992699623108</v>
+        <v>3.655386447906494</v>
       </c>
       <c r="E27">
-        <v>24.20000076293945</v>
+        <v>7.18</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3043,10 +2828,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>7.249423388671875</v>
+        <v>7.243337963867187</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3057,13 +2842,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>2.136702561766151</v>
+        <v>5.710198528998721</v>
       </c>
       <c r="D28">
-        <v>2.062452554702759</v>
+        <v>3.369430780410767</v>
       </c>
       <c r="E28">
-        <v>24.26999855041504</v>
+        <v>10.93</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3072,10 +2857,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>2.086809399414062</v>
+        <v>3.87705888671875</v>
       </c>
       <c r="J28">
-        <v>39.65999984741211</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3086,13 +2871,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>2.138598018545445</v>
+        <v>5.675126788890467</v>
       </c>
       <c r="D29">
-        <v>2.048382600148519</v>
+        <v>3.376057863235474</v>
       </c>
       <c r="E29">
-        <v>24.51999855041504</v>
+        <v>10.94</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3101,10 +2886,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>7.362375170898438</v>
+        <v>7.427648583984375</v>
       </c>
       <c r="J29">
-        <v>8.699999809265137</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3115,13 +2900,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>2.13363897315855</v>
+        <v>5.639633575371937</v>
       </c>
       <c r="D30">
-        <v>2.030232787132263</v>
+        <v>3.377104997634888</v>
       </c>
       <c r="E30">
-        <v>24.28999900817871</v>
+        <v>10.72</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3130,10 +2915,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>2.077277642822266</v>
+        <v>3.993779418945313</v>
       </c>
       <c r="J30">
-        <v>40.41999816894531</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3144,13 +2929,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>2.123059873658467</v>
+        <v>5.68239832768398</v>
       </c>
       <c r="D31">
-        <v>2.049581408500671</v>
+        <v>3.395695447921753</v>
       </c>
       <c r="E31">
-        <v>23.92999839782715</v>
+        <v>10.6</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3159,10 +2944,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>7.479864233398438</v>
+        <v>7.515711254882812</v>
       </c>
       <c r="J31">
-        <v>8.639999389648438</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3173,13 +2958,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>2.128487793410696</v>
+        <v>5.758164819362944</v>
       </c>
       <c r="D32">
-        <v>2.046781539916992</v>
+        <v>3.38606333732605</v>
       </c>
       <c r="E32">
-        <v>24.25</v>
+        <v>10.6</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3188,10 +2973,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>2.068820202636719</v>
+        <v>4.011917919921875</v>
       </c>
       <c r="J32">
-        <v>39.93999862670898</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3202,13 +2987,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.99705988604848</v>
+        <v>5.774831535541906</v>
       </c>
       <c r="D33">
-        <v>2.051491498947144</v>
+        <v>3.405582666397095</v>
       </c>
       <c r="E33">
-        <v>24.24999809265137</v>
+        <v>10.36</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3217,28 +3002,13 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>7.553511865234375</v>
+        <v>6.253493188476562</v>
       </c>
       <c r="J33">
-        <v>8.420000076293945</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>1.992381209280433</v>
-      </c>
-      <c r="D34">
-        <v>2.03991687297821</v>
-      </c>
-      <c r="E34">
-        <v>24.42000007629395</v>
-      </c>
       <c r="G34">
         <v>1</v>
       </c>
@@ -3246,28 +3016,13 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>2.060637872314453</v>
+        <v>3.220425146484375</v>
       </c>
       <c r="J34">
-        <v>40.91999816894531</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>1.987564748864833</v>
-      </c>
-      <c r="D35">
-        <v>2.023400863011678</v>
-      </c>
-      <c r="E35">
-        <v>24.39999771118164</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -3275,28 +3030,13 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>7.635648291015625</v>
+        <v>6.484680102539063</v>
       </c>
       <c r="J35">
-        <v>8.179999351501465</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36">
-        <v>1.987858956422263</v>
-      </c>
-      <c r="D36">
-        <v>2.031270941098531</v>
-      </c>
-      <c r="E36">
-        <v>24.38000106811523</v>
-      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -3304,28 +3044,13 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>2.056063024902344</v>
+        <v>3.434093920898437</v>
       </c>
       <c r="J36">
-        <v>41.03999710083008</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>1.98298382565258</v>
-      </c>
-      <c r="D37">
-        <v>2.050421317418416</v>
-      </c>
-      <c r="E37">
-        <v>24.5</v>
-      </c>
       <c r="G37">
         <v>0</v>
       </c>
@@ -3333,28 +3058,13 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>7.694649951171875</v>
+        <v>6.727785888671875</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38">
-        <v>1.978000853119827</v>
-      </c>
-      <c r="D38">
-        <v>2.063856164614359</v>
-      </c>
-      <c r="E38">
-        <v>24.35999870300293</v>
-      </c>
       <c r="G38">
         <v>1</v>
       </c>
@@ -3362,28 +3072,13 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>2.051756726074219</v>
+        <v>3.717642883300781</v>
       </c>
       <c r="J38">
-        <v>40.95999908447266</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39">
-        <v>1.975645734042656</v>
-      </c>
-      <c r="D39">
-        <v>2.029546618461609</v>
-      </c>
-      <c r="E39">
-        <v>24.43999862670898</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -3391,28 +3086,13 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>7.806726025390625</v>
+        <v>6.907335473632813</v>
       </c>
       <c r="J39">
-        <v>7.980000019073486</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>1.97384800949717</v>
-      </c>
-      <c r="D40">
-        <v>2.030660072962443</v>
-      </c>
-      <c r="E40">
-        <v>24.56999969482422</v>
-      </c>
       <c r="G40">
         <v>1</v>
       </c>
@@ -3420,28 +3100,13 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>2.047485278320313</v>
+        <v>4.046208447265625</v>
       </c>
       <c r="J40">
-        <v>40.7599983215332</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>1.96329548010012</v>
-      </c>
-      <c r="D41">
-        <v>2.036430915196737</v>
-      </c>
-      <c r="E41">
-        <v>24.40999984741211</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -3449,28 +3114,13 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>7.824812329101563</v>
+        <v>6.94823203125</v>
       </c>
       <c r="J41">
-        <v>8.09999942779541</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>1.95781281420855</v>
-      </c>
-      <c r="D42">
-        <v>2.052477598190308</v>
-      </c>
-      <c r="E42">
-        <v>24.36000061035156</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
@@ -3478,28 +3128,13 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>2.043032604980469</v>
+        <v>4.364105212402344</v>
       </c>
       <c r="J42">
-        <v>40.71999740600586</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>1.95521222382057</v>
-      </c>
-      <c r="D43">
-        <v>2.052952210108439</v>
-      </c>
-      <c r="E43">
-        <v>24.47999954223633</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -3507,28 +3142,13 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>7.980930883789062</v>
+        <v>6.12264619140625</v>
       </c>
       <c r="J43">
-        <v>7.759999752044678</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>1.954147228380529</v>
-      </c>
-      <c r="D44">
-        <v>2.039697130521139</v>
-      </c>
-      <c r="E44">
-        <v>24.42999839782715</v>
-      </c>
       <c r="G44">
         <v>1</v>
       </c>
@@ -3536,28 +3156,13 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>2.036458929443359</v>
+        <v>3.112684716796875</v>
       </c>
       <c r="J44">
-        <v>41.03999710083008</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>1.950711248366813</v>
-      </c>
-      <c r="D45">
-        <v>2.055574893951416</v>
-      </c>
-      <c r="E45">
-        <v>24.48999977111816</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -3565,28 +3170,13 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>8.036868334960937</v>
+        <v>6.176730444335938</v>
       </c>
       <c r="J45">
-        <v>7.639999866485596</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>1.956983399585011</v>
-      </c>
-      <c r="D46">
-        <v>2.004094560941061</v>
-      </c>
-      <c r="E46">
-        <v>24.38999938964844</v>
-      </c>
       <c r="G46">
         <v>1</v>
       </c>
@@ -3594,28 +3184,13 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>2.032303625488281</v>
+        <v>3.1499908203125</v>
       </c>
       <c r="J46">
-        <v>41.7599983215332</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <v>1.954302656941298</v>
-      </c>
-      <c r="D47">
-        <v>2.034503221511841</v>
-      </c>
-      <c r="E47">
-        <v>24.34000015258789</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -3623,28 +3198,13 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>8.161884179687499</v>
+        <v>6.253855249023437</v>
       </c>
       <c r="J47">
-        <v>7.639999866485596</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48">
-        <v>1.955565885799687</v>
-      </c>
-      <c r="D48">
-        <v>2.073844273885091</v>
-      </c>
-      <c r="E48">
-        <v>24.28999900817871</v>
-      </c>
       <c r="G48">
         <v>1</v>
       </c>
@@ -3652,28 +3212,13 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>2.024995495605469</v>
+        <v>3.190119665527344</v>
       </c>
       <c r="J48">
-        <v>41.27999877929688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>47</v>
-      </c>
-      <c r="C49">
-        <v>1.951052986509432</v>
-      </c>
-      <c r="D49">
-        <v>2.04301377137502</v>
-      </c>
-      <c r="E49">
-        <v>24.38999938964844</v>
-      </c>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>0</v>
       </c>
@@ -3681,28 +3226,13 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>8.228935205078125</v>
+        <v>6.2796892578125</v>
       </c>
       <c r="J49">
-        <v>7.259999752044678</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>48</v>
-      </c>
-      <c r="C50">
-        <v>1.94756772363089</v>
-      </c>
-      <c r="D50">
-        <v>2.018347422281901</v>
-      </c>
-      <c r="E50">
-        <v>24.39999771118164</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>1</v>
       </c>
@@ -3710,28 +3240,13 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>2.019587103271484</v>
+        <v>3.234372924804688</v>
       </c>
       <c r="J50">
-        <v>41.43999862670898</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>49</v>
-      </c>
-      <c r="C51">
-        <v>1.947486947222454</v>
-      </c>
-      <c r="D51">
-        <v>2.029821554819743</v>
-      </c>
-      <c r="E51">
-        <v>24.55999946594238</v>
-      </c>
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>0</v>
       </c>
@@ -3739,28 +3254,13 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>8.334588598632813</v>
+        <v>6.302795776367187</v>
       </c>
       <c r="J51">
-        <v>7.039999961853027</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>50</v>
-      </c>
-      <c r="C52">
-        <v>1.956400918766735</v>
-      </c>
-      <c r="D52">
-        <v>2.072426756223043</v>
-      </c>
-      <c r="E52">
-        <v>24.45000076293945</v>
-      </c>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>1</v>
       </c>
@@ -3768,28 +3268,13 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>2.018488787841797</v>
+        <v>3.281792919921875</v>
       </c>
       <c r="J52">
-        <v>41.36000061035156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>51</v>
-      </c>
-      <c r="C53">
-        <v>1.951490570859211</v>
-      </c>
-      <c r="D53">
-        <v>2.063007990519206</v>
-      </c>
-      <c r="E53">
-        <v>24.35000038146973</v>
-      </c>
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>0</v>
       </c>
@@ -3797,28 +3282,13 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>8.442792041015625</v>
+        <v>6.071090673828125</v>
       </c>
       <c r="J53">
-        <v>6.779999732971191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>52</v>
-      </c>
-      <c r="C54">
-        <v>1.951460885807751</v>
-      </c>
-      <c r="D54">
-        <v>2.051209727923075</v>
-      </c>
-      <c r="E54">
-        <v>24.46999931335449</v>
-      </c>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>1</v>
       </c>
@@ -3826,28 +3296,13 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>2.014404235839844</v>
+        <v>3.076053491210938</v>
       </c>
       <c r="J54">
-        <v>41.7599983215332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <v>1.949918358306575</v>
-      </c>
-      <c r="D55">
-        <v>2.034411032994588</v>
-      </c>
-      <c r="E55">
-        <v>24.47999954223633</v>
-      </c>
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>0</v>
       </c>
@@ -3855,28 +3310,13 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>8.4260146484375</v>
+        <v>6.08351767578125</v>
       </c>
       <c r="J55">
-        <v>6.980000019073486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>1.948209056040136</v>
-      </c>
-      <c r="D56">
-        <v>2.026702920595805</v>
-      </c>
-      <c r="E56">
-        <v>24.34000015258789</v>
-      </c>
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>1</v>
       </c>
@@ -3884,13 +3324,13 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>2.011552941894531</v>
+        <v>3.080729345703125</v>
       </c>
       <c r="J56">
-        <v>42.05999755859375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>18.94</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>0</v>
       </c>
@@ -3898,13 +3338,13 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>8.54249453125</v>
+        <v>6.086824536132813</v>
       </c>
       <c r="J57">
-        <v>6.659999847412109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>1</v>
       </c>
@@ -3912,13 +3352,13 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>2.009982635498047</v>
+        <v>3.086249365234375</v>
       </c>
       <c r="J58">
-        <v>41.91999816894531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>0</v>
       </c>
@@ -3926,13 +3366,13 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>8.616580029296875</v>
+        <v>6.114612915039062</v>
       </c>
       <c r="J59">
-        <v>6.319999694824219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>1</v>
       </c>
@@ -3940,13 +3380,13 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>2.003710760498047</v>
+        <v>3.091293518066406</v>
       </c>
       <c r="J60">
-        <v>41.53999710083008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>0</v>
       </c>
@@ -3954,13 +3394,13 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>8.701180541992187</v>
+        <v>6.120471606445313</v>
       </c>
       <c r="J61">
-        <v>5.980000019073486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>1</v>
       </c>
@@ -3968,13 +3408,13 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>1.996027752685547</v>
+        <v>3.093889538574219</v>
       </c>
       <c r="J62">
-        <v>42.52000045776367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>0</v>
       </c>
@@ -3982,13 +3422,13 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>8.370438549804687</v>
+        <v>6.130586987304688</v>
       </c>
       <c r="J63">
-        <v>6.919999599456787</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>1</v>
       </c>
@@ -3996,654 +3436,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>2.009770288085937</v>
+        <v>3.101967858886719</v>
       </c>
       <c r="J64">
-        <v>41.57999801635742</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>32</v>
-      </c>
-      <c r="I65">
-        <v>8.404244531250001</v>
-      </c>
-      <c r="J65">
-        <v>6.839999675750732</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>32</v>
-      </c>
-      <c r="I66">
-        <v>2.005041845703125</v>
-      </c>
-      <c r="J66">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>33</v>
-      </c>
-      <c r="I67">
-        <v>8.423434960937501</v>
-      </c>
-      <c r="J67">
-        <v>6.919999599456787</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10">
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>33</v>
-      </c>
-      <c r="I68">
-        <v>2.002424829101562</v>
-      </c>
-      <c r="J68">
-        <v>41.87999725341797</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10">
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>34</v>
-      </c>
-      <c r="I69">
-        <v>8.463369506835937</v>
-      </c>
-      <c r="J69">
-        <v>6.739999771118164</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>34</v>
-      </c>
-      <c r="I70">
-        <v>2.000420074462891</v>
-      </c>
-      <c r="J70">
-        <v>42.02000045776367</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>35</v>
-      </c>
-      <c r="I71">
-        <v>8.490825830078125</v>
-      </c>
-      <c r="J71">
-        <v>6.659999847412109</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10">
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>35</v>
-      </c>
-      <c r="I72">
-        <v>1.995665399169922</v>
-      </c>
-      <c r="J72">
-        <v>42.34000015258789</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>36</v>
-      </c>
-      <c r="I73">
-        <v>8.517425585937501</v>
-      </c>
-      <c r="J73">
-        <v>6.599999904632568</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>36</v>
-      </c>
-      <c r="I74">
-        <v>1.989496331787109</v>
-      </c>
-      <c r="J74">
-        <v>42.11999893188477</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>37</v>
-      </c>
-      <c r="I75">
-        <v>8.563594995117187</v>
-      </c>
-      <c r="J75">
-        <v>6.339999675750732</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10">
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>37</v>
-      </c>
-      <c r="I76">
-        <v>1.989624377441406</v>
-      </c>
-      <c r="J76">
-        <v>42.53999710083008</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10">
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>38</v>
-      </c>
-      <c r="I77">
-        <v>8.571804052734375</v>
-      </c>
-      <c r="J77">
-        <v>6.319999694824219</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10">
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>38</v>
-      </c>
-      <c r="I78">
-        <v>1.984509332275391</v>
-      </c>
-      <c r="J78">
-        <v>42.81999969482422</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>39</v>
-      </c>
-      <c r="I79">
-        <v>8.445054199218751</v>
-      </c>
-      <c r="J79">
-        <v>6.739999771118164</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>39</v>
-      </c>
-      <c r="I80">
-        <v>1.998302685546875</v>
-      </c>
-      <c r="J80">
-        <v>42.07999801635742</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>40</v>
-      </c>
-      <c r="I81">
-        <v>8.461245654296874</v>
-      </c>
-      <c r="J81">
-        <v>6.699999809265137</v>
-      </c>
-    </row>
-    <row r="82" spans="7:10">
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>40</v>
-      </c>
-      <c r="I82">
-        <v>1.996256390380859</v>
-      </c>
-      <c r="J82">
-        <v>42.02000045776367</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10">
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>41</v>
-      </c>
-      <c r="I83">
-        <v>8.457519384765625</v>
-      </c>
-      <c r="J83">
-        <v>6.679999828338623</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10">
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>41</v>
-      </c>
-      <c r="I84">
-        <v>1.991905065917969</v>
-      </c>
-      <c r="J84">
-        <v>42.27999877929688</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10">
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>42</v>
-      </c>
-      <c r="I85">
-        <v>8.487655664062499</v>
-      </c>
-      <c r="J85">
-        <v>6.599999904632568</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10">
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>42</v>
-      </c>
-      <c r="I86">
-        <v>1.989833233642578</v>
-      </c>
-      <c r="J86">
-        <v>42.2599983215332</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10">
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>43</v>
-      </c>
-      <c r="I87">
-        <v>8.508360034179688</v>
-      </c>
-      <c r="J87">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="88" spans="7:10">
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>43</v>
-      </c>
-      <c r="I88">
-        <v>1.989883258056641</v>
-      </c>
-      <c r="J88">
-        <v>42.47999954223633</v>
-      </c>
-    </row>
-    <row r="89" spans="7:10">
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>44</v>
-      </c>
-      <c r="I89">
-        <v>8.429133422851562</v>
-      </c>
-      <c r="J89">
-        <v>6.779999732971191</v>
-      </c>
-    </row>
-    <row r="90" spans="7:10">
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>44</v>
-      </c>
-      <c r="I90">
-        <v>1.999907922363281</v>
-      </c>
-      <c r="J90">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="7:10">
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>45</v>
-      </c>
-      <c r="I91">
-        <v>8.42746767578125</v>
-      </c>
-      <c r="J91">
-        <v>6.699999809265137</v>
-      </c>
-    </row>
-    <row r="92" spans="7:10">
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>45</v>
-      </c>
-      <c r="I92">
-        <v>1.996805548095703</v>
-      </c>
-      <c r="J92">
-        <v>41.97999954223633</v>
-      </c>
-    </row>
-    <row r="93" spans="7:10">
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>46</v>
-      </c>
-      <c r="I93">
-        <v>8.46189892578125</v>
-      </c>
-      <c r="J93">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="94" spans="7:10">
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>46</v>
-      </c>
-      <c r="I94">
-        <v>1.996840161132813</v>
-      </c>
-      <c r="J94">
-        <v>42.07999801635742</v>
-      </c>
-    </row>
-    <row r="95" spans="7:10">
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>47</v>
-      </c>
-      <c r="I95">
-        <v>8.441327709960937</v>
-      </c>
-      <c r="J95">
-        <v>6.519999980926514</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10">
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>47</v>
-      </c>
-      <c r="I96">
-        <v>1.991362762451172</v>
-      </c>
-      <c r="J96">
-        <v>42.2599983215332</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>48</v>
-      </c>
-      <c r="I97">
-        <v>8.4643767578125</v>
-      </c>
-      <c r="J97">
-        <v>6.579999923706055</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>48</v>
-      </c>
-      <c r="I98">
-        <v>1.991558465576172</v>
-      </c>
-      <c r="J98">
-        <v>42.21999740600586</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>49</v>
-      </c>
-      <c r="I99">
-        <v>8.460634594726562</v>
-      </c>
-      <c r="J99">
-        <v>6.619999885559082</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>49</v>
-      </c>
-      <c r="I100">
-        <v>1.988438348388672</v>
-      </c>
-      <c r="J100">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>50</v>
-      </c>
-      <c r="I101">
-        <v>8.427768505859374</v>
-      </c>
-      <c r="J101">
-        <v>6.87999963760376</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>50</v>
-      </c>
-      <c r="I102">
-        <v>1.997067993164062</v>
-      </c>
-      <c r="J102">
-        <v>42.02000045776367</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>51</v>
-      </c>
-      <c r="I103">
-        <v>8.435172583007812</v>
-      </c>
-      <c r="J103">
-        <v>6.71999979019165</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>51</v>
-      </c>
-      <c r="I104">
-        <v>1.997549725341797</v>
-      </c>
-      <c r="J104">
-        <v>41.97999954223633</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>52</v>
-      </c>
-      <c r="I105">
-        <v>8.433155151367188</v>
-      </c>
-      <c r="J105">
-        <v>6.799999713897705</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>52</v>
-      </c>
-      <c r="I106">
-        <v>1.994101190185547</v>
-      </c>
-      <c r="J106">
-        <v>42.13999938964844</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <v>8.435263305664062</v>
-      </c>
-      <c r="J107">
-        <v>6.779999732971191</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <v>1.993197918701172</v>
-      </c>
-      <c r="J108">
-        <v>42.18000030517578</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>54</v>
-      </c>
-      <c r="I109">
-        <v>8.436784228515625</v>
-      </c>
-      <c r="J109">
-        <v>6.699999809265137</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>1.99295615234375</v>
-      </c>
-      <c r="J110">
-        <v>41.97999954223633</v>
+        <v>17.76</v>
       </c>
     </row>
   </sheetData>
